--- a/data/商品圖片規格/露營用品清單_完整版（繁體）.xlsx
+++ b/data/商品圖片規格/露營用品清單_完整版（繁體）.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t xml:space="preserve">商品名稱</t>
   </si>
@@ -256,7 +256,13 @@
     <t xml:space="preserve">綠色</t>
   </si>
   <si>
+    <t xml:space="preserve">白桌 + 奶綠椅 2 張（雙人組）</t>
+  </si>
+  <si>
     <t xml:space="preserve">8-5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">木紋桌 + 卡其椅 4 張（多人組）</t>
   </si>
   <si>
     <t xml:space="preserve">9-10L</t>
@@ -1100,8 +1106,8 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1405,6 +1411,12 @@
       <c r="H13" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="J13" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
@@ -1417,10 +1429,16 @@
         <v>39</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="n">
         <v>200</v>
+      </c>
+      <c r="J14" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,7 +1452,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>260</v>
@@ -1451,16 +1469,16 @@
     </row>
     <row r="17" s="6" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>1300</v>
@@ -1468,16 +1486,16 @@
     </row>
     <row r="18" s="6" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>2450</v>
@@ -1485,16 +1503,16 @@
     </row>
     <row r="19" s="6" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>3100</v>
@@ -1502,7 +1520,7 @@
     </row>
     <row r="20" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,16 +1531,16 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>170</v>
@@ -1530,16 +1548,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>170</v>
@@ -1547,16 +1565,16 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>170</v>
@@ -1572,16 +1590,16 @@
     </row>
     <row r="26" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>830</v>
@@ -1589,16 +1607,16 @@
     </row>
     <row r="27" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>830</v>
@@ -1606,16 +1624,16 @@
     </row>
     <row r="28" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>830</v>
@@ -1623,7 +1641,7 @@
     </row>
     <row r="29" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,16 +1654,16 @@
     </row>
     <row r="31" s="6" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>1800</v>
@@ -1658,16 +1676,16 @@
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>60</v>
